--- a/src/test/resources/DataTestProvider.xlsx
+++ b/src/test/resources/DataTestProvider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -29,13 +29,34 @@
   </si>
   <si>
     <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>jonosebastian</t>
+  </si>
+  <si>
+    <t>Epic sadface: Username and password do not match any user in this service</t>
+  </si>
+  <si>
+    <t>secret_sambel</t>
+  </si>
+  <si>
+    <t>Epic sadface: Password is required</t>
+  </si>
+  <si>
+    <t>Epic sadface: Username is required</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/v1/inventory.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +68,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,14 +98,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -379,44 +411,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="10005" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="10005" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>